--- a/modeling/report/03-eval-final.xlsx
+++ b/modeling/report/03-eval-final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,140 +441,160 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Confusion Matrix: TP</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Confusion Matrix: FP</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Confusion Matrix: FN</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Confusion Matrix: TN</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Confusion Matrix: TN-FP</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Confusion Matrix: FN-FP</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Confusion Matrix: TN-TP</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Confusion Matrix: FN-TP</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: 0-precision</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: 1-precision</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: 0-recall</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: 1-recall</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: 0-f1-score</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: 1-f1-score</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: 0-support</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: 1-support</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: accuracy-f1-score</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: accuracy-support</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: macro avg-precision</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: macro avg-recall</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: macro avg-f1-score</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: macro avg-support</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: weighted avg-precision</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: weighted avg-recall</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: weighted avg-f1-score</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Classification Report: weighted avg-support</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ROC-AUC Score</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Accuracy</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>R2 Score</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>N Estimators</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Max Depth</t>
         </is>
@@ -587,85 +607,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469</v>
+        <v>292</v>
       </c>
       <c r="C2" t="n">
-        <v>-205</v>
+        <v>89</v>
       </c>
       <c r="D2" t="n">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>-218</v>
+        <v>285</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9060240963855422</v>
+        <v>196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5112262521588946</v>
+        <v>-7</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7265700483091787</v>
+        <v>-7</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7914438502673797</v>
+        <v>-210</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8064343163538874</v>
+        <v>0.776566757493188</v>
       </c>
       <c r="K2" t="n">
-        <v>0.621196222455404</v>
+        <v>0.7664041994750657</v>
       </c>
       <c r="L2" t="n">
-        <v>1035</v>
+        <v>0.7620320855614974</v>
       </c>
       <c r="M2" t="n">
-        <v>374</v>
+        <v>0.7807486631016043</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7437899219304471</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="O2" t="n">
-        <v>1409</v>
+        <v>0.7735099337748345</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7086251742722184</v>
+        <v>374</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7590069492882792</v>
+        <v>374</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7138152694046457</v>
+        <v>0.7713903743315508</v>
       </c>
       <c r="S2" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8012303463920956</v>
+        <v>0.7714854784841269</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7437899219304471</v>
+        <v>0.7713903743315509</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7572653687896342</v>
+        <v>0.7713703515028019</v>
       </c>
       <c r="W2" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8397814461753081</v>
+        <v>0.771485478484127</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7437899219304471</v>
+        <v>0.7713903743315508</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2562100780695529</v>
+        <v>0.7713703515028019</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.3140329122426309</v>
-      </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+        <v>748</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.8504461094111927</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.7713903743315508</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2286096256684492</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.08556149732620322</v>
+      </c>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -674,85 +706,97 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>703</v>
+        <v>273</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="D3" t="n">
-        <v>671</v>
+        <v>101</v>
       </c>
       <c r="E3" t="n">
-        <v>-22</v>
+        <v>257</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8315789473684211</v>
+        <v>140</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5439560439560439</v>
+        <v>-16</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8396135265700483</v>
+        <v>-16</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5294117647058824</v>
+        <v>-172</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8355769230769231</v>
+        <v>0.7178770949720671</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1035</v>
+        <v>0.6871657754010695</v>
       </c>
       <c r="M3" t="n">
-        <v>374</v>
+        <v>0.7299465240641712</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7572746628814763</v>
+        <v>0.7021857923497268</v>
       </c>
       <c r="O3" t="n">
-        <v>1409</v>
+        <v>0.7146596858638743</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6877674956622325</v>
+        <v>374</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6845126456379653</v>
+        <v>374</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6860811444652908</v>
+        <v>0.7085561497326203</v>
       </c>
       <c r="S3" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7552333363845821</v>
+        <v>0.7089385474860335</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7572746628814763</v>
+        <v>0.7085561497326203</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7562136566457655</v>
+        <v>0.7084227391068005</v>
       </c>
       <c r="W3" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7744955953395851</v>
+        <v>0.7089385474860335</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7572746628814763</v>
+        <v>0.7085561497326203</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2427253371185238</v>
+        <v>0.7084227391068004</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.2448732852824922</v>
-      </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+        <v>748</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.7893884583488233</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.7085561497326203</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2914438502673797</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.1657754010695187</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -761,85 +805,97 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499</v>
+        <v>282</v>
       </c>
       <c r="C4" t="n">
-        <v>-184</v>
+        <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>477</v>
+        <v>92</v>
       </c>
       <c r="E4" t="n">
-        <v>-206</v>
+        <v>289</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9012925969447708</v>
+        <v>204</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5197132616487455</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7410628019323672</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7754010695187166</v>
+        <v>-190</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8133616118769883</v>
+        <v>0.7585301837270341</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6223175965665236</v>
+        <v>0.7683923705722071</v>
       </c>
       <c r="L4" t="n">
-        <v>1035</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="M4" t="n">
-        <v>374</v>
+        <v>0.7540106951871658</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7501774308019872</v>
+        <v>0.7655629139072848</v>
       </c>
       <c r="O4" t="n">
-        <v>1409</v>
+        <v>0.7611336032388664</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7105029292967582</v>
+        <v>374</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7582319357255418</v>
+        <v>374</v>
       </c>
       <c r="R4" t="n">
-        <v>0.717839604221756</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="S4" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8000075214297151</v>
+        <v>0.7634612771496205</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7501774308019872</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7626515609713007</v>
+        <v>0.7633482585730755</v>
       </c>
       <c r="W4" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8230876540339458</v>
+        <v>0.7634612771496206</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7501774308019872</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2498225691980128</v>
+        <v>0.7633482585730758</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.2812730889457231</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+        <v>748</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.8420815579513283</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.7633689839572193</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2366310160427808</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.053475935828877</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -848,85 +904,97 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>499</v>
+        <v>282</v>
       </c>
       <c r="C5" t="n">
-        <v>-184</v>
+        <v>85</v>
       </c>
       <c r="D5" t="n">
-        <v>477</v>
+        <v>92</v>
       </c>
       <c r="E5" t="n">
-        <v>-206</v>
+        <v>289</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9012925969447708</v>
+        <v>204</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5197132616487455</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7410628019323672</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7754010695187166</v>
+        <v>-190</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8133616118769883</v>
+        <v>0.7585301837270341</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6223175965665236</v>
+        <v>0.7683923705722071</v>
       </c>
       <c r="L5" t="n">
-        <v>1035</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="M5" t="n">
-        <v>374</v>
+        <v>0.7540106951871658</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7501774308019872</v>
+        <v>0.7655629139072848</v>
       </c>
       <c r="O5" t="n">
-        <v>1409</v>
+        <v>0.7611336032388664</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7105029292967582</v>
+        <v>374</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7582319357255418</v>
+        <v>374</v>
       </c>
       <c r="R5" t="n">
-        <v>0.717839604221756</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="S5" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8000075214297151</v>
+        <v>0.7634612771496205</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7501774308019872</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7626515609713007</v>
+        <v>0.7633482585730755</v>
       </c>
       <c r="W5" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8230876540339458</v>
+        <v>0.7634612771496206</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7501774308019872</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2498225691980128</v>
+        <v>0.7633482585730758</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.2812730889457231</v>
-      </c>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+        <v>748</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.8420815579513283</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.7633689839572193</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.2366310160427808</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.053475935828877</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -935,85 +1003,97 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145</v>
+        <v>328</v>
       </c>
       <c r="C6" t="n">
-        <v>-397</v>
+        <v>154</v>
       </c>
       <c r="D6" t="n">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
-        <v>-278</v>
+        <v>220</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9247648902821317</v>
+        <v>66</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4228274967574578</v>
+        <v>-108</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5700483091787439</v>
+        <v>-108</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8716577540106952</v>
+        <v>-282</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7053197848176928</v>
+        <v>0.8270676691729323</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5694323144104804</v>
+        <v>0.6804979253112033</v>
       </c>
       <c r="L6" t="n">
-        <v>1035</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="M6" t="n">
-        <v>374</v>
+        <v>0.8770053475935828</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6501064584811923</v>
+        <v>0.6875</v>
       </c>
       <c r="O6" t="n">
-        <v>1409</v>
+        <v>0.7663551401869159</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6737961935197948</v>
+        <v>374</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7208530315947196</v>
+        <v>374</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6373760496140866</v>
+        <v>0.732620320855615</v>
       </c>
       <c r="S6" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7915323954785632</v>
+        <v>0.7537827972420679</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6501064584811923</v>
+        <v>0.732620320855615</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6692502930275598</v>
+        <v>0.7269275700934579</v>
       </c>
       <c r="W6" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8081893099795914</v>
+        <v>0.7537827972420678</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6501064584811923</v>
+        <v>0.732620320855615</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3498935415188076</v>
+        <v>0.7269275700934579</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.794510320597277</v>
-      </c>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+        <v>748</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.8263104463953788</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.732620320855615</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.267379679144385</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.06951871657754016</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1022,85 +1102,97 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>407</v>
+        <v>289</v>
       </c>
       <c r="C7" t="n">
-        <v>-243</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>418</v>
+        <v>85</v>
       </c>
       <c r="E7" t="n">
-        <v>-232</v>
+        <v>274</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9103535353535354</v>
+        <v>174</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4910858995137763</v>
+        <v>-15</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6966183574879227</v>
+        <v>-15</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8101604278074866</v>
+        <v>-204</v>
       </c>
       <c r="J7" t="n">
-        <v>0.789272030651341</v>
+        <v>0.7632311977715878</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6115035317860746</v>
+        <v>0.7429305912596401</v>
       </c>
       <c r="L7" t="n">
-        <v>1035</v>
+        <v>0.732620320855615</v>
       </c>
       <c r="M7" t="n">
-        <v>374</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7267565649396736</v>
+        <v>0.747612551159618</v>
       </c>
       <c r="O7" t="n">
-        <v>1409</v>
+        <v>0.7575360419397117</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7007197174336559</v>
+        <v>374</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7533893926477047</v>
+        <v>374</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7003877812187078</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="S7" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7990646100135285</v>
+        <v>0.753080894515614</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7267565649396736</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7420857860980339</v>
+        <v>0.7525742965496649</v>
       </c>
       <c r="W7" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="X7" t="n">
-        <v>0.8208465731483635</v>
+        <v>0.7530808945156141</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7267565649396736</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2732434350603264</v>
+        <v>0.7525742965496649</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.4013924410343845</v>
-      </c>
-      <c r="AB7" t="inlineStr"/>
+        <v>748</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.8337456032485917</v>
+      </c>
       <c r="AC7" t="n">
+        <v>0.7526737967914439</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.2473262032085561</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.01069518716577544</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1111,87 +1203,99 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>407</v>
+        <v>289</v>
       </c>
       <c r="C8" t="n">
-        <v>-243</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>418</v>
+        <v>85</v>
       </c>
       <c r="E8" t="n">
-        <v>-232</v>
+        <v>274</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9103535353535354</v>
+        <v>174</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4910858995137763</v>
+        <v>-15</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6966183574879227</v>
+        <v>-15</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8101604278074866</v>
+        <v>-204</v>
       </c>
       <c r="J8" t="n">
-        <v>0.789272030651341</v>
+        <v>0.7632311977715878</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6115035317860746</v>
+        <v>0.7429305912596401</v>
       </c>
       <c r="L8" t="n">
-        <v>1035</v>
+        <v>0.732620320855615</v>
       </c>
       <c r="M8" t="n">
-        <v>374</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7267565649396736</v>
+        <v>0.747612551159618</v>
       </c>
       <c r="O8" t="n">
-        <v>1409</v>
+        <v>0.7575360419397117</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7007197174336559</v>
+        <v>374</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7533893926477047</v>
+        <v>374</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7003877812187078</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="S8" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7990646100135285</v>
+        <v>0.753080894515614</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7267565649396736</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7420857860980339</v>
+        <v>0.7525742965496649</v>
       </c>
       <c r="W8" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="X8" t="n">
-        <v>0.8340902632462736</v>
+        <v>0.7530808945156141</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7267565649396736</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2732434350603264</v>
+        <v>0.7525742965496649</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.4013924410343845</v>
+        <v>748</v>
       </c>
       <c r="AB8" t="n">
+        <v>0.8381495038462637</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.7526737967914439</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.2473262032085561</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.01069518716577544</v>
+      </c>
+      <c r="AF8" t="n">
         <v>100</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AG8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1202,87 +1306,99 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>749</v>
+        <v>273</v>
       </c>
       <c r="C9" t="n">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D9" t="n">
-        <v>702</v>
+        <v>101</v>
       </c>
       <c r="E9" t="n">
-        <v>-6</v>
+        <v>270</v>
       </c>
       <c r="F9" t="n">
-        <v>0.828996282527881</v>
+        <v>166</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5705705705705706</v>
+        <v>-3</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8618357487922705</v>
+        <v>-3</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5080213903743316</v>
+        <v>-172</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8450971103742302</v>
+        <v>0.7277628032345014</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5374823196605375</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L9" t="n">
-        <v>1035</v>
+        <v>0.7219251336898396</v>
       </c>
       <c r="M9" t="n">
-        <v>374</v>
+        <v>0.7299465240641712</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7679205110007097</v>
+        <v>0.7248322147651006</v>
       </c>
       <c r="O9" t="n">
-        <v>1409</v>
+        <v>0.7270306258322237</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6997834265492258</v>
+        <v>374</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6849285695833011</v>
+        <v>374</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6912897150173838</v>
+        <v>0.7259358288770054</v>
       </c>
       <c r="S9" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="T9" t="n">
-        <v>0.76040067126313</v>
+        <v>0.725950367134492</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7679205110007097</v>
+        <v>0.7259358288770054</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7634449232011138</v>
+        <v>0.7259314202986622</v>
       </c>
       <c r="W9" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="X9" t="n">
-        <v>0.8046294143480845</v>
+        <v>0.725950367134492</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7679205110007097</v>
+        <v>0.7259358288770054</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2320794889992903</v>
+        <v>0.7259314202986621</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.1902735797876463</v>
+        <v>748</v>
       </c>
       <c r="AB9" t="n">
+        <v>0.8077297034516284</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.7259358288770054</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.2740641711229946</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.09625668449197855</v>
+      </c>
+      <c r="AF9" t="n">
         <v>100</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AG9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1293,85 +1409,97 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775</v>
+        <v>289</v>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="D10" t="n">
-        <v>695</v>
+        <v>85</v>
       </c>
       <c r="E10" t="n">
-        <v>-46</v>
+        <v>291</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8465855940130963</v>
+        <v>208</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6176470588235294</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8743961352657005</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5614973262032086</v>
+        <v>-204</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8602661596958175</v>
+        <v>0.773936170212766</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.7768817204301075</v>
       </c>
       <c r="L10" t="n">
-        <v>1035</v>
+        <v>0.7780748663101604</v>
       </c>
       <c r="M10" t="n">
-        <v>374</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7913413768630234</v>
+        <v>0.776</v>
       </c>
       <c r="O10" t="n">
-        <v>1409</v>
+        <v>0.774798927613941</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7321163264183128</v>
+        <v>374</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7179467307344545</v>
+        <v>374</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7242507269067323</v>
+        <v>0.7754010695187166</v>
       </c>
       <c r="S10" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7858169551480161</v>
+        <v>0.7754089453214368</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7913413768630234</v>
+        <v>0.7754010695187166</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7880592443471761</v>
+        <v>0.7753994638069706</v>
       </c>
       <c r="W10" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="X10" t="n">
-        <v>0.839538608592317</v>
+        <v>0.7754089453214367</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7913413768630234</v>
+        <v>0.7754010695187166</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2086586231369766</v>
+        <v>0.7753994638069706</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.07015422769898461</v>
-      </c>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
+        <v>748</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.8535774543166805</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.7754010695187166</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.2245989304812834</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.1016042780748663</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1380,85 +1508,97 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>791</v>
+        <v>303</v>
       </c>
       <c r="C11" t="n">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="D11" t="n">
-        <v>725</v>
+        <v>71</v>
       </c>
       <c r="E11" t="n">
-        <v>-2</v>
+        <v>262</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8307552320291174</v>
+        <v>150</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6064516129032258</v>
+        <v>-41</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8821256038647343</v>
+        <v>-41</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5026737967914439</v>
+        <v>-232</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8556701030927835</v>
+        <v>0.7867867867867868</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5497076023391813</v>
+        <v>0.7301204819277108</v>
       </c>
       <c r="L11" t="n">
-        <v>1035</v>
+        <v>0.7005347593582888</v>
       </c>
       <c r="M11" t="n">
-        <v>374</v>
+        <v>0.8101604278074866</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7814052519517388</v>
+        <v>0.7411598302687411</v>
       </c>
       <c r="O11" t="n">
-        <v>1409</v>
+        <v>0.7680608365019012</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7186034224661716</v>
+        <v>374</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6923997003280891</v>
+        <v>374</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7026888527159824</v>
+        <v>0.7553475935828877</v>
       </c>
       <c r="S11" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="T11" t="n">
-        <v>0.771216868968022</v>
+        <v>0.7584536343572488</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7814052519517388</v>
+        <v>0.7553475935828877</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7744564939502376</v>
+        <v>0.7546103333853211</v>
       </c>
       <c r="W11" t="n">
-        <v>1409</v>
+        <v>748</v>
       </c>
       <c r="X11" t="n">
-        <v>0.8283499961249322</v>
+        <v>0.7584536343572488</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7814052519517388</v>
+        <v>0.7553475935828877</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2185947480482612</v>
+        <v>0.7546103333853212</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.1211139528275076</v>
-      </c>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+        <v>748</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.8355471989476393</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.7553475935828877</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.2446524064171123</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.02139037433155078</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
